--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_35.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1230195712954334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C:maj/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58), (14.86, 17.32)]</t>
+          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2), (2.3, 7.04)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:12.720000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:09.898503', '0:00:16.109841')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(22.36, 25.24)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(58.78, 61.54)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1079545454545455</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'F#:min'], ['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1398692810457516</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Bb:min'], ['Gb', 'Ab', 'Db']]</t>
+          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.977483, 31.599071), (16.088141, 27.709728)]</t>
+          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(35.765102, 41.75585), (3.810375, 7.314387)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:00.440395', '0:00:07.659045')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:03.280385')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_60</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08363903154805576</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.22, 18.3)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(69.84, 81.68)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.980790', '0:00:05.421882')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.04292561582332241</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:7', 'G:7', 'G:min7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1187888198757764</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'C:7', 'C:min7', 'F:7']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.92, 11.85)]</t>
+          <t>[['C:min', 'F:min/5', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.85, 22.36)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:00.560000', '0:00:04.260000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:17.357000', '0:00:22.981000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_213</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1964285714285714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.687641, 32.084739)]</t>
+          <t>[['E', 'E:7', 'A'], ['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.731723, 23.783605)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:19.500000', '0:00:30.320000'), ('0:01:12.420000', '0:01:15.580000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:16.192174', '0:00:27.488682'), ('0:00:00.442301', '0:00:13.370949')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.45</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'Bb']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.38, 4.14)]</t>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:53.960000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07690302398331594</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.54, 12.72)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(53.5, 61.32), (58.12, 62.72), (68.64, 77.38), (6.84, 12.46)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32), (63.46, 65.78), (65.28, 71.0), (65.78, 74.48)]</t>
+          <t>[('0:00:32.520000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1185701830863121</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['Bb', 'F', 'Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(142.379117, 149.240614)]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.738798, 43.706326)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:22.564557', '0:00:29.611814')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:27.963197', '0:00:40.095623')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.726778, 13.147096)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5535714285714286</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.54, 13.28), (8.96, 12.68)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(4.605, 21.095), (3.509, 18.764)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(100.26, 106.3), (42.36, 50.36)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(92.26, 99.02), (124.3, 129.24)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(140.48, 145.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(46.52, 48.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
